--- a/medicine/Sexualité et sexologie/Kynodesme/Kynodesme.xlsx
+++ b/medicine/Sexualité et sexologie/Kynodesme/Kynodesme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kynodesme (littéralement laisse de chien) est une fine bande de cuir qui était portée par certains athlètes de la Grèce antique autour de leur prépuce pour ne pas dévoiler leur gland qui était considéré comme un des plus importants ornements du corps humain. Ce lien était lié étroitement autour de l'akroposthion, la partie du prépuce qui s'étend au-delà du gland. Le kynodesme pouvait de l'autre côté être attaché à la taille pour exposer le scrotum ou à la base du pénis pour faire apparaître ce dernier vrillé.
 La première mention littéraire de ce terme date du Ve siècle av. J.-C. dans le drame satyrique Theoroi d'Eschyle. Il y a des preuves plus ancienne de l’existence de cet objet avec des images d'athlètes sur des poteries grecques.
